--- a/pidis/expdata/00001.xlsx
+++ b/pidis/expdata/00001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuprd-my.sharepoint.com/personal/tug83224_temple_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{617AF6AC-9523-5247-BEDF-84ADD902D6F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D10FC4B0-FA14-1A4D-ABA1-EDF1A20956BE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{617AF6AC-9523-5247-BEDF-84ADD902D6F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84BA0DDD-1759-6847-83EA-D93FB0C30282}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,24 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Elab</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>col</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>obs</t>
-  </si>
-  <si>
-    <t>target</t>
   </si>
   <si>
     <t>value</t>
@@ -64,9 +52,6 @@
   </si>
   <si>
     <t>SR</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>SU3</t>
@@ -405,18 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK18"/>
+  <dimension ref="A1:AMG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="1021" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,257 +414,169 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>150</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="3">
-        <v>0.2</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="H2" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
